--- a/CumulativeTestsByTypeByCounty/2022-03-23.xlsx
+++ b/CumulativeTestsByTypeByCounty/2022-03-23.xlsx
@@ -1074,16 +1074,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>85346</v>
+        <v>85388</v>
       </c>
       <c r="C2" s="4">
         <v>2513</v>
       </c>
       <c r="D2" s="4">
-        <v>48062</v>
+        <v>48079</v>
       </c>
       <c r="E2" s="4">
-        <v>135921</v>
+        <v>135980</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1091,16 +1091,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>6935</v>
+        <v>6940</v>
       </c>
       <c r="C3" s="4">
         <v>357</v>
       </c>
       <c r="D3" s="4">
-        <v>7858</v>
+        <v>7860</v>
       </c>
       <c r="E3" s="4">
-        <v>15150</v>
+        <v>15157</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1108,16 +1108,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>88217</v>
+        <v>88270</v>
       </c>
       <c r="C4" s="4">
         <v>4981</v>
       </c>
       <c r="D4" s="4">
-        <v>94813</v>
+        <v>94915</v>
       </c>
       <c r="E4" s="4">
-        <v>188011</v>
+        <v>188166</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1125,16 +1125,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>20005</v>
+        <v>20035</v>
       </c>
       <c r="C5" s="4">
         <v>3074</v>
       </c>
       <c r="D5" s="4">
-        <v>16934</v>
+        <v>16952</v>
       </c>
       <c r="E5" s="4">
-        <v>40013</v>
+        <v>40061</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1142,16 +1142,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>5258</v>
+        <v>5265</v>
       </c>
       <c r="C6" s="4">
         <v>933</v>
       </c>
       <c r="D6" s="4">
-        <v>2354</v>
+        <v>2359</v>
       </c>
       <c r="E6" s="4">
-        <v>8545</v>
+        <v>8557</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1159,16 +1159,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="C7" s="4">
         <v>344</v>
       </c>
       <c r="D7" s="4">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="E7" s="4">
-        <v>3209</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1176,16 +1176,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>126610</v>
+        <v>126676</v>
       </c>
       <c r="C8" s="4">
         <v>1551</v>
       </c>
       <c r="D8" s="4">
-        <v>21789</v>
+        <v>21832</v>
       </c>
       <c r="E8" s="4">
-        <v>149950</v>
+        <v>150059</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1193,16 +1193,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>34605</v>
+        <v>34638</v>
       </c>
       <c r="C9" s="4">
         <v>1961</v>
       </c>
       <c r="D9" s="4">
-        <v>6944</v>
+        <v>6968</v>
       </c>
       <c r="E9" s="4">
-        <v>43510</v>
+        <v>43567</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1210,16 +1210,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2981</v>
+        <v>2993</v>
       </c>
       <c r="C10" s="4">
         <v>101</v>
       </c>
       <c r="D10" s="4">
-        <v>2584</v>
+        <v>2592</v>
       </c>
       <c r="E10" s="4">
-        <v>5666</v>
+        <v>5686</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1227,16 +1227,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>16960</v>
+        <v>16977</v>
       </c>
       <c r="C11" s="4">
         <v>967</v>
       </c>
       <c r="D11" s="4">
-        <v>11275</v>
+        <v>11289</v>
       </c>
       <c r="E11" s="4">
-        <v>29202</v>
+        <v>29233</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1244,16 +1244,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>112897</v>
+        <v>112974</v>
       </c>
       <c r="C12" s="4">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="D12" s="4">
-        <v>51896</v>
+        <v>51923</v>
       </c>
       <c r="E12" s="4">
-        <v>167868</v>
+        <v>167973</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1261,16 +1261,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="C13" s="4">
         <v>645</v>
       </c>
       <c r="D13" s="4">
-        <v>4813</v>
+        <v>4816</v>
       </c>
       <c r="E13" s="4">
-        <v>7891</v>
+        <v>7895</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1278,16 +1278,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>57684</v>
+        <v>57745</v>
       </c>
       <c r="C14" s="4">
-        <v>8665</v>
+        <v>8677</v>
       </c>
       <c r="D14" s="4">
-        <v>28529</v>
+        <v>28569</v>
       </c>
       <c r="E14" s="4">
-        <v>94878</v>
+        <v>94991</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1295,16 +1295,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>476384</v>
+        <v>476991</v>
       </c>
       <c r="C15" s="4">
-        <v>16620</v>
+        <v>16621</v>
       </c>
       <c r="D15" s="4">
-        <v>136800</v>
+        <v>137124</v>
       </c>
       <c r="E15" s="4">
-        <v>629804</v>
+        <v>630736</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1312,16 +1312,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>5156500</v>
+        <v>5162670</v>
       </c>
       <c r="C16" s="4">
-        <v>86219</v>
+        <v>86296</v>
       </c>
       <c r="D16" s="4">
-        <v>811589</v>
+        <v>813128</v>
       </c>
       <c r="E16" s="4">
-        <v>6054308</v>
+        <v>6062094</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1329,16 +1329,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>10454</v>
+        <v>10467</v>
       </c>
       <c r="C17" s="4">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D17" s="4">
-        <v>6349</v>
+        <v>6351</v>
       </c>
       <c r="E17" s="4">
-        <v>17463</v>
+        <v>17479</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1363,16 +1363,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>13991</v>
+        <v>14000</v>
       </c>
       <c r="C19" s="4">
         <v>637</v>
       </c>
       <c r="D19" s="4">
-        <v>10648</v>
+        <v>10652</v>
       </c>
       <c r="E19" s="4">
-        <v>25276</v>
+        <v>25289</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1380,16 +1380,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>99598</v>
+        <v>99667</v>
       </c>
       <c r="C20" s="4">
         <v>10791</v>
       </c>
       <c r="D20" s="4">
-        <v>44671</v>
+        <v>44790</v>
       </c>
       <c r="E20" s="4">
-        <v>155060</v>
+        <v>155248</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1397,16 +1397,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>683883</v>
+        <v>684969</v>
       </c>
       <c r="C21" s="4">
-        <v>27825</v>
+        <v>27840</v>
       </c>
       <c r="D21" s="4">
-        <v>150482</v>
+        <v>150777</v>
       </c>
       <c r="E21" s="4">
-        <v>862190</v>
+        <v>863586</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1414,16 +1414,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>516800</v>
+        <v>517339</v>
       </c>
       <c r="C22" s="4">
-        <v>14406</v>
+        <v>14415</v>
       </c>
       <c r="D22" s="4">
-        <v>61641</v>
+        <v>61709</v>
       </c>
       <c r="E22" s="4">
-        <v>592847</v>
+        <v>593463</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1431,7 +1431,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>9728</v>
+        <v>9737</v>
       </c>
       <c r="C23" s="4">
         <v>183</v>
@@ -1440,7 +1440,7 @@
         <v>3696</v>
       </c>
       <c r="E23" s="4">
-        <v>13607</v>
+        <v>13616</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1465,16 +1465,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>26751</v>
+        <v>26767</v>
       </c>
       <c r="C25" s="4">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="D25" s="4">
-        <v>7355</v>
+        <v>7357</v>
       </c>
       <c r="E25" s="4">
-        <v>36048</v>
+        <v>36068</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1482,16 +1482,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>30784</v>
+        <v>30803</v>
       </c>
       <c r="C26" s="4">
         <v>1276</v>
       </c>
       <c r="D26" s="4">
-        <v>52735</v>
+        <v>52781</v>
       </c>
       <c r="E26" s="4">
-        <v>84795</v>
+        <v>84860</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1499,16 +1499,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>30208</v>
+        <v>30236</v>
       </c>
       <c r="C27" s="4">
         <v>926</v>
       </c>
       <c r="D27" s="4">
-        <v>8296</v>
+        <v>8299</v>
       </c>
       <c r="E27" s="4">
-        <v>39430</v>
+        <v>39461</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1516,16 +1516,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>66098</v>
+        <v>66149</v>
       </c>
       <c r="C28" s="4">
-        <v>2964</v>
+        <v>2966</v>
       </c>
       <c r="D28" s="4">
-        <v>17390</v>
+        <v>17423</v>
       </c>
       <c r="E28" s="4">
-        <v>86452</v>
+        <v>86538</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1533,16 +1533,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>72039</v>
+        <v>72094</v>
       </c>
       <c r="C29" s="4">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="D29" s="4">
-        <v>21530</v>
+        <v>21539</v>
       </c>
       <c r="E29" s="4">
-        <v>96036</v>
+        <v>96101</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1550,16 +1550,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>23489</v>
+        <v>23501</v>
       </c>
       <c r="C30" s="4">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="D30" s="4">
-        <v>18161</v>
+        <v>18176</v>
       </c>
       <c r="E30" s="4">
-        <v>44382</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>7859</v>
+        <v>7862</v>
       </c>
       <c r="C31" s="4">
         <v>374</v>
       </c>
       <c r="D31" s="4">
-        <v>14322</v>
+        <v>14328</v>
       </c>
       <c r="E31" s="4">
-        <v>22555</v>
+        <v>22564</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1584,16 +1584,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>518850</v>
+        <v>519197</v>
       </c>
       <c r="C32" s="4">
-        <v>12569</v>
+        <v>12577</v>
       </c>
       <c r="D32" s="4">
-        <v>192726</v>
+        <v>193263</v>
       </c>
       <c r="E32" s="4">
-        <v>724145</v>
+        <v>725037</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1601,16 +1601,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>11076</v>
+        <v>11087</v>
       </c>
       <c r="C33" s="4">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D33" s="4">
-        <v>4656</v>
+        <v>4660</v>
       </c>
       <c r="E33" s="4">
-        <v>16330</v>
+        <v>16346</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1618,16 +1618,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>3641</v>
+        <v>3643</v>
       </c>
       <c r="C34" s="4">
         <v>1151</v>
       </c>
       <c r="D34" s="4">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="E34" s="4">
-        <v>6702</v>
+        <v>6705</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1635,16 +1635,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>22270</v>
+        <v>22297</v>
       </c>
       <c r="C35" s="4">
         <v>3420</v>
       </c>
       <c r="D35" s="4">
-        <v>17047</v>
+        <v>17088</v>
       </c>
       <c r="E35" s="4">
-        <v>42737</v>
+        <v>42805</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1652,7 +1652,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>9678</v>
+        <v>9683</v>
       </c>
       <c r="C36" s="4">
         <v>453</v>
@@ -1661,7 +1661,7 @@
         <v>4526</v>
       </c>
       <c r="E36" s="4">
-        <v>14657</v>
+        <v>14662</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1669,16 +1669,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>16634</v>
+        <v>16673</v>
       </c>
       <c r="C37" s="4">
         <v>939</v>
       </c>
       <c r="D37" s="4">
-        <v>4442</v>
+        <v>4460</v>
       </c>
       <c r="E37" s="4">
-        <v>22015</v>
+        <v>22072</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1686,16 +1686,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>41653</v>
+        <v>41686</v>
       </c>
       <c r="C38" s="4">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D38" s="4">
-        <v>37842</v>
+        <v>37870</v>
       </c>
       <c r="E38" s="4">
-        <v>80945</v>
+        <v>81007</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1703,16 +1703,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>8681</v>
+        <v>8697</v>
       </c>
       <c r="C39" s="4">
         <v>479</v>
       </c>
       <c r="D39" s="4">
-        <v>6959</v>
+        <v>6981</v>
       </c>
       <c r="E39" s="4">
-        <v>16119</v>
+        <v>16157</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1720,16 +1720,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>7531</v>
+        <v>7539</v>
       </c>
       <c r="C40" s="4">
         <v>763</v>
       </c>
       <c r="D40" s="4">
-        <v>7132</v>
+        <v>7139</v>
       </c>
       <c r="E40" s="4">
-        <v>15426</v>
+        <v>15441</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1737,16 +1737,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="C41" s="4">
         <v>30</v>
       </c>
       <c r="D41" s="4">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E41" s="4">
-        <v>2675</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1754,16 +1754,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="C42" s="4">
         <v>77</v>
       </c>
       <c r="D42" s="4">
-        <v>4113</v>
+        <v>4116</v>
       </c>
       <c r="E42" s="4">
-        <v>7323</v>
+        <v>7327</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1771,16 +1771,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>5080</v>
+        <v>5084</v>
       </c>
       <c r="C43" s="4">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D43" s="4">
-        <v>5990</v>
+        <v>5991</v>
       </c>
       <c r="E43" s="4">
-        <v>11269</v>
+        <v>11275</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1788,16 +1788,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1878057</v>
+        <v>1879387</v>
       </c>
       <c r="C44" s="4">
-        <v>121934</v>
+        <v>121967</v>
       </c>
       <c r="D44" s="4">
-        <v>425752</v>
+        <v>426335</v>
       </c>
       <c r="E44" s="4">
-        <v>2425743</v>
+        <v>2427689</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1805,16 +1805,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>2297</v>
+        <v>2304</v>
       </c>
       <c r="C45" s="4">
         <v>146</v>
       </c>
       <c r="D45" s="4">
-        <v>3927</v>
+        <v>3930</v>
       </c>
       <c r="E45" s="4">
-        <v>6370</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1822,16 +1822,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>22238</v>
+        <v>22263</v>
       </c>
       <c r="C46" s="4">
         <v>1276</v>
       </c>
       <c r="D46" s="4">
-        <v>13137</v>
+        <v>13142</v>
       </c>
       <c r="E46" s="4">
-        <v>36651</v>
+        <v>36681</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1839,16 +1839,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>225479</v>
+        <v>225747</v>
       </c>
       <c r="C47" s="4">
-        <v>14909</v>
+        <v>14912</v>
       </c>
       <c r="D47" s="4">
-        <v>72088</v>
+        <v>72215</v>
       </c>
       <c r="E47" s="4">
-        <v>312476</v>
+        <v>312874</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1856,16 +1856,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>13140</v>
+        <v>13164</v>
       </c>
       <c r="C48" s="4">
         <v>397</v>
       </c>
       <c r="D48" s="4">
-        <v>8261</v>
+        <v>8269</v>
       </c>
       <c r="E48" s="4">
-        <v>21798</v>
+        <v>21830</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1873,16 +1873,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="C49" s="4">
         <v>40</v>
       </c>
       <c r="D49" s="4">
-        <v>5765</v>
+        <v>5774</v>
       </c>
       <c r="E49" s="4">
-        <v>8480</v>
+        <v>8490</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1890,16 +1890,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>36010</v>
+        <v>36026</v>
       </c>
       <c r="C50" s="4">
         <v>2638</v>
       </c>
       <c r="D50" s="4">
-        <v>16262</v>
+        <v>16281</v>
       </c>
       <c r="E50" s="4">
-        <v>54910</v>
+        <v>54945</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1907,16 +1907,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>151316</v>
+        <v>151386</v>
       </c>
       <c r="C51" s="4">
         <v>2540</v>
       </c>
       <c r="D51" s="4">
-        <v>36954</v>
+        <v>36977</v>
       </c>
       <c r="E51" s="4">
-        <v>190810</v>
+        <v>190903</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1924,16 +1924,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="C52" s="4">
         <v>78</v>
       </c>
       <c r="D52" s="4">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E52" s="4">
-        <v>2723</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1941,7 +1941,7 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>5114</v>
+        <v>5115</v>
       </c>
       <c r="C53" s="4">
         <v>100</v>
@@ -1950,7 +1950,7 @@
         <v>5352</v>
       </c>
       <c r="E53" s="4">
-        <v>10566</v>
+        <v>10567</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1964,10 +1964,10 @@
         <v>27</v>
       </c>
       <c r="D54" s="4">
-        <v>6077</v>
+        <v>6079</v>
       </c>
       <c r="E54" s="4">
-        <v>7393</v>
+        <v>7395</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1981,10 +1981,10 @@
         <v>85</v>
       </c>
       <c r="D55" s="4">
-        <v>4538</v>
+        <v>4542</v>
       </c>
       <c r="E55" s="4">
-        <v>8894</v>
+        <v>8898</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1992,7 +1992,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="C56" s="4">
         <v>42</v>
@@ -2001,7 +2001,7 @@
         <v>486</v>
       </c>
       <c r="E56" s="4">
-        <v>3668</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2009,16 +2009,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>4513</v>
+        <v>4515</v>
       </c>
       <c r="C57" s="4">
         <v>611</v>
       </c>
       <c r="D57" s="4">
-        <v>4393</v>
+        <v>4395</v>
       </c>
       <c r="E57" s="4">
-        <v>9517</v>
+        <v>9521</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2026,16 +2026,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>4481421</v>
+        <v>4486108</v>
       </c>
       <c r="C58" s="4">
-        <v>180189</v>
+        <v>180242</v>
       </c>
       <c r="D58" s="4">
-        <v>803337</v>
+        <v>804503</v>
       </c>
       <c r="E58" s="4">
-        <v>5464947</v>
+        <v>5470853</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2043,16 +2043,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>12404</v>
+        <v>12408</v>
       </c>
       <c r="C59" s="4">
         <v>649</v>
       </c>
       <c r="D59" s="4">
-        <v>7400</v>
+        <v>7401</v>
       </c>
       <c r="E59" s="4">
-        <v>20453</v>
+        <v>20458</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2060,16 +2060,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>18094</v>
+        <v>18109</v>
       </c>
       <c r="C60" s="4">
         <v>713</v>
       </c>
       <c r="D60" s="4">
-        <v>9891</v>
+        <v>9901</v>
       </c>
       <c r="E60" s="4">
-        <v>28698</v>
+        <v>28723</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2077,16 +2077,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>9493</v>
+        <v>9530</v>
       </c>
       <c r="C61" s="4">
         <v>1308</v>
       </c>
       <c r="D61" s="4">
-        <v>8925</v>
+        <v>8929</v>
       </c>
       <c r="E61" s="4">
-        <v>19726</v>
+        <v>19767</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2094,16 +2094,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>3547</v>
+        <v>3550</v>
       </c>
       <c r="C62" s="4">
         <v>265</v>
       </c>
       <c r="D62" s="4">
-        <v>4003</v>
+        <v>4006</v>
       </c>
       <c r="E62" s="4">
-        <v>7815</v>
+        <v>7821</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2111,16 +2111,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>1098022</v>
+        <v>1098813</v>
       </c>
       <c r="C63" s="4">
-        <v>86269</v>
+        <v>86289</v>
       </c>
       <c r="D63" s="4">
-        <v>331575</v>
+        <v>332476</v>
       </c>
       <c r="E63" s="4">
-        <v>1515866</v>
+        <v>1517578</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2128,16 +2128,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="C64" s="4">
         <v>22</v>
       </c>
       <c r="D64" s="4">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="E64" s="4">
-        <v>2315</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2145,16 +2145,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>37381</v>
+        <v>37384</v>
       </c>
       <c r="C65" s="4">
         <v>137</v>
       </c>
       <c r="D65" s="4">
-        <v>48276</v>
+        <v>48299</v>
       </c>
       <c r="E65" s="4">
-        <v>85794</v>
+        <v>85820</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2168,10 +2168,10 @@
         <v>508</v>
       </c>
       <c r="D66" s="4">
-        <v>2674</v>
+        <v>2677</v>
       </c>
       <c r="E66" s="4">
-        <v>5570</v>
+        <v>5573</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2179,16 +2179,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>27488</v>
+        <v>27505</v>
       </c>
       <c r="C67" s="4">
-        <v>3573</v>
+        <v>3575</v>
       </c>
       <c r="D67" s="4">
-        <v>14186</v>
+        <v>14269</v>
       </c>
       <c r="E67" s="4">
-        <v>45247</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2196,16 +2196,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>8593</v>
+        <v>8600</v>
       </c>
       <c r="C68" s="4">
         <v>579</v>
       </c>
       <c r="D68" s="4">
-        <v>10449</v>
+        <v>10450</v>
       </c>
       <c r="E68" s="4">
-        <v>19621</v>
+        <v>19629</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2213,16 +2213,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>109663</v>
+        <v>109747</v>
       </c>
       <c r="C69" s="4">
         <v>6820</v>
       </c>
       <c r="D69" s="4">
-        <v>85925</v>
+        <v>86047</v>
       </c>
       <c r="E69" s="4">
-        <v>202408</v>
+        <v>202614</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2230,16 +2230,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="C70" s="4">
         <v>46</v>
       </c>
       <c r="D70" s="4">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E70" s="4">
-        <v>2731</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2247,16 +2247,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1521790</v>
+        <v>1522894</v>
       </c>
       <c r="C71" s="4">
-        <v>24430</v>
+        <v>24441</v>
       </c>
       <c r="D71" s="4">
-        <v>709324</v>
+        <v>710197</v>
       </c>
       <c r="E71" s="4">
-        <v>2255544</v>
+        <v>2257532</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2264,16 +2264,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>295246</v>
+        <v>295448</v>
       </c>
       <c r="C72" s="4">
         <v>10340</v>
       </c>
       <c r="D72" s="4">
-        <v>70972</v>
+        <v>71080</v>
       </c>
       <c r="E72" s="4">
-        <v>376558</v>
+        <v>376868</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2281,16 +2281,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>38299</v>
+        <v>38346</v>
       </c>
       <c r="C73" s="4">
         <v>2439</v>
       </c>
       <c r="D73" s="4">
-        <v>17602</v>
+        <v>17606</v>
       </c>
       <c r="E73" s="4">
-        <v>58340</v>
+        <v>58391</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2298,16 +2298,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>20146</v>
+        <v>20152</v>
       </c>
       <c r="C74" s="4">
         <v>508</v>
       </c>
       <c r="D74" s="4">
-        <v>12329</v>
+        <v>12351</v>
       </c>
       <c r="E74" s="4">
-        <v>32983</v>
+        <v>33011</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2315,16 +2315,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>49164</v>
+        <v>49275</v>
       </c>
       <c r="C75" s="4">
         <v>1250</v>
       </c>
       <c r="D75" s="4">
-        <v>14426</v>
+        <v>14435</v>
       </c>
       <c r="E75" s="4">
-        <v>64840</v>
+        <v>64960</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2332,16 +2332,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>26730</v>
+        <v>26756</v>
       </c>
       <c r="C76" s="4">
         <v>1135</v>
       </c>
       <c r="D76" s="4">
-        <v>9495</v>
+        <v>9499</v>
       </c>
       <c r="E76" s="4">
-        <v>37360</v>
+        <v>37390</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2355,10 +2355,10 @@
         <v>50</v>
       </c>
       <c r="D77" s="4">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E77" s="4">
-        <v>2907</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2366,7 +2366,7 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>5664</v>
+        <v>5671</v>
       </c>
       <c r="C78" s="4">
         <v>176</v>
@@ -2375,7 +2375,7 @@
         <v>1094</v>
       </c>
       <c r="E78" s="4">
-        <v>6934</v>
+        <v>6941</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2389,10 +2389,10 @@
         <v>166</v>
       </c>
       <c r="D79" s="4">
-        <v>2566</v>
+        <v>2569</v>
       </c>
       <c r="E79" s="4">
-        <v>3521</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2400,16 +2400,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>1422025</v>
+        <v>1427237</v>
       </c>
       <c r="C80" s="4">
-        <v>54437</v>
+        <v>54470</v>
       </c>
       <c r="D80" s="4">
-        <v>215492</v>
+        <v>215803</v>
       </c>
       <c r="E80" s="4">
-        <v>1691954</v>
+        <v>1697510</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2417,16 +2417,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>8251</v>
+        <v>8263</v>
       </c>
       <c r="C81" s="4">
         <v>641</v>
       </c>
       <c r="D81" s="4">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="E81" s="4">
-        <v>11165</v>
+        <v>11179</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2434,16 +2434,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>26800</v>
+        <v>26821</v>
       </c>
       <c r="C82" s="4">
         <v>950</v>
       </c>
       <c r="D82" s="4">
-        <v>24630</v>
+        <v>24666</v>
       </c>
       <c r="E82" s="4">
-        <v>52380</v>
+        <v>52437</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2451,16 +2451,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>39613</v>
+        <v>39698</v>
       </c>
       <c r="C83" s="4">
         <v>591</v>
       </c>
       <c r="D83" s="4">
-        <v>10457</v>
+        <v>10462</v>
       </c>
       <c r="E83" s="4">
-        <v>50661</v>
+        <v>50751</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2468,16 +2468,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>5840</v>
+        <v>5843</v>
       </c>
       <c r="C84" s="4">
         <v>321</v>
       </c>
       <c r="D84" s="4">
-        <v>3228</v>
+        <v>3246</v>
       </c>
       <c r="E84" s="4">
-        <v>9389</v>
+        <v>9410</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2485,16 +2485,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>728801</v>
+        <v>729704</v>
       </c>
       <c r="C85" s="4">
-        <v>28985</v>
+        <v>29017</v>
       </c>
       <c r="D85" s="4">
-        <v>130883</v>
+        <v>131030</v>
       </c>
       <c r="E85" s="4">
-        <v>888669</v>
+        <v>889751</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2502,7 +2502,7 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>4973</v>
+        <v>4974</v>
       </c>
       <c r="C86" s="4">
         <v>79</v>
@@ -2511,7 +2511,7 @@
         <v>2258</v>
       </c>
       <c r="E86" s="4">
-        <v>7310</v>
+        <v>7311</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2519,16 +2519,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>24410</v>
+        <v>24432</v>
       </c>
       <c r="C87" s="4">
         <v>1258</v>
       </c>
       <c r="D87" s="4">
-        <v>14628</v>
+        <v>14641</v>
       </c>
       <c r="E87" s="4">
-        <v>40296</v>
+        <v>40331</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2553,16 +2553,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>5519</v>
+        <v>5522</v>
       </c>
       <c r="C89" s="4">
         <v>445</v>
       </c>
       <c r="D89" s="4">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="E89" s="4">
-        <v>10161</v>
+        <v>10165</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2570,16 +2570,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>19021</v>
+        <v>19035</v>
       </c>
       <c r="C90" s="4">
         <v>593</v>
       </c>
       <c r="D90" s="4">
-        <v>15868</v>
+        <v>15882</v>
       </c>
       <c r="E90" s="4">
-        <v>35482</v>
+        <v>35510</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2587,16 +2587,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>14877</v>
+        <v>14880</v>
       </c>
       <c r="C91" s="4">
         <v>1386</v>
       </c>
       <c r="D91" s="4">
-        <v>14525</v>
+        <v>14552</v>
       </c>
       <c r="E91" s="4">
-        <v>30788</v>
+        <v>30818</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2604,16 +2604,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>196152</v>
+        <v>196232</v>
       </c>
       <c r="C92" s="4">
         <v>6892</v>
       </c>
       <c r="D92" s="4">
-        <v>64407</v>
+        <v>64446</v>
       </c>
       <c r="E92" s="4">
-        <v>267451</v>
+        <v>267570</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2621,16 +2621,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>92574</v>
+        <v>92655</v>
       </c>
       <c r="C93" s="4">
-        <v>12711</v>
+        <v>12712</v>
       </c>
       <c r="D93" s="4">
-        <v>54251</v>
+        <v>54328</v>
       </c>
       <c r="E93" s="4">
-        <v>159536</v>
+        <v>159695</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2638,16 +2638,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>63057</v>
+        <v>63112</v>
       </c>
       <c r="C94" s="4">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D94" s="4">
-        <v>16866</v>
+        <v>16871</v>
       </c>
       <c r="E94" s="4">
-        <v>81521</v>
+        <v>81582</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2655,16 +2655,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>175707</v>
+        <v>175864</v>
       </c>
       <c r="C95" s="4">
-        <v>7142</v>
+        <v>7143</v>
       </c>
       <c r="D95" s="4">
-        <v>64051</v>
+        <v>64116</v>
       </c>
       <c r="E95" s="4">
-        <v>246900</v>
+        <v>247123</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2672,16 +2672,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>35686</v>
+        <v>35712</v>
       </c>
       <c r="C96" s="4">
         <v>571</v>
       </c>
       <c r="D96" s="4">
-        <v>10307</v>
+        <v>10324</v>
       </c>
       <c r="E96" s="4">
-        <v>46564</v>
+        <v>46607</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2689,16 +2689,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>2883</v>
+        <v>2890</v>
       </c>
       <c r="C97" s="4">
         <v>83</v>
       </c>
       <c r="D97" s="4">
-        <v>3831</v>
+        <v>3833</v>
       </c>
       <c r="E97" s="4">
-        <v>6797</v>
+        <v>6806</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2706,7 +2706,7 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>12709</v>
+        <v>12730</v>
       </c>
       <c r="C98" s="4">
         <v>496</v>
@@ -2715,7 +2715,7 @@
         <v>5801</v>
       </c>
       <c r="E98" s="4">
-        <v>19006</v>
+        <v>19027</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2723,16 +2723,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="C99" s="4">
         <v>875</v>
       </c>
       <c r="D99" s="4">
-        <v>5048</v>
+        <v>5056</v>
       </c>
       <c r="E99" s="4">
-        <v>8333</v>
+        <v>8342</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2740,16 +2740,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>2876</v>
+        <v>2881</v>
       </c>
       <c r="C100" s="4">
         <v>332</v>
       </c>
       <c r="D100" s="4">
-        <v>4370</v>
+        <v>4381</v>
       </c>
       <c r="E100" s="4">
-        <v>7578</v>
+        <v>7594</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2757,16 +2757,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>49423</v>
+        <v>49482</v>
       </c>
       <c r="C101" s="4">
         <v>4872</v>
       </c>
       <c r="D101" s="4">
-        <v>32733</v>
+        <v>32755</v>
       </c>
       <c r="E101" s="4">
-        <v>87028</v>
+        <v>87109</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2774,16 +2774,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>8873071</v>
+        <v>8939861</v>
       </c>
       <c r="C102" s="4">
-        <v>292638</v>
+        <v>292763</v>
       </c>
       <c r="D102" s="4">
-        <v>1323339</v>
+        <v>1325990</v>
       </c>
       <c r="E102" s="4">
-        <v>10489048</v>
+        <v>10558614</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2791,16 +2791,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>92734</v>
+        <v>92794</v>
       </c>
       <c r="C103" s="4">
         <v>9743</v>
       </c>
       <c r="D103" s="4">
-        <v>40759</v>
+        <v>40876</v>
       </c>
       <c r="E103" s="4">
-        <v>143236</v>
+        <v>143413</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2814,10 +2814,10 @@
         <v>81</v>
       </c>
       <c r="D104" s="4">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E104" s="4">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2825,16 +2825,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="C105" s="4">
         <v>48</v>
       </c>
       <c r="D105" s="4">
-        <v>4456</v>
+        <v>4483</v>
       </c>
       <c r="E105" s="4">
-        <v>6602</v>
+        <v>6631</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2842,16 +2842,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>528375</v>
+        <v>528781</v>
       </c>
       <c r="C106" s="4">
-        <v>19693</v>
+        <v>19695</v>
       </c>
       <c r="D106" s="4">
-        <v>75378</v>
+        <v>75487</v>
       </c>
       <c r="E106" s="4">
-        <v>623446</v>
+        <v>623963</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2876,16 +2876,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>57857</v>
+        <v>57910</v>
       </c>
       <c r="C108" s="4">
-        <v>3525</v>
+        <v>3527</v>
       </c>
       <c r="D108" s="4">
-        <v>33657</v>
+        <v>33705</v>
       </c>
       <c r="E108" s="4">
-        <v>95039</v>
+        <v>95142</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2893,16 +2893,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>1021233</v>
+        <v>1021796</v>
       </c>
       <c r="C109" s="4">
-        <v>24575</v>
+        <v>24578</v>
       </c>
       <c r="D109" s="4">
-        <v>489510</v>
+        <v>490172</v>
       </c>
       <c r="E109" s="4">
-        <v>1535318</v>
+        <v>1536546</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2910,16 +2910,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>46286</v>
+        <v>46318</v>
       </c>
       <c r="C110" s="4">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D110" s="4">
-        <v>23055</v>
+        <v>23163</v>
       </c>
       <c r="E110" s="4">
-        <v>70732</v>
+        <v>70873</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2927,16 +2927,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>21800</v>
+        <v>21834</v>
       </c>
       <c r="C111" s="4">
         <v>294</v>
       </c>
       <c r="D111" s="4">
-        <v>10051</v>
+        <v>10056</v>
       </c>
       <c r="E111" s="4">
-        <v>32145</v>
+        <v>32184</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2944,16 +2944,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>63046</v>
+        <v>63097</v>
       </c>
       <c r="C112" s="4">
         <v>3480</v>
       </c>
       <c r="D112" s="4">
-        <v>51058</v>
+        <v>51075</v>
       </c>
       <c r="E112" s="4">
-        <v>117584</v>
+        <v>117652</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2961,16 +2961,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>31515</v>
+        <v>31542</v>
       </c>
       <c r="C113" s="4">
         <v>2204</v>
       </c>
       <c r="D113" s="4">
-        <v>17446</v>
+        <v>17473</v>
       </c>
       <c r="E113" s="4">
-        <v>51165</v>
+        <v>51219</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2978,16 +2978,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>22564</v>
+        <v>22578</v>
       </c>
       <c r="C114" s="4">
         <v>860</v>
       </c>
       <c r="D114" s="4">
-        <v>14283</v>
+        <v>14311</v>
       </c>
       <c r="E114" s="4">
-        <v>37707</v>
+        <v>37749</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2995,16 +2995,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>24668</v>
+        <v>24679</v>
       </c>
       <c r="C115" s="4">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D115" s="4">
-        <v>29042</v>
+        <v>29055</v>
       </c>
       <c r="E115" s="4">
-        <v>54724</v>
+        <v>54750</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3012,7 +3012,7 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>3721</v>
+        <v>3722</v>
       </c>
       <c r="C116" s="4">
         <v>57</v>
@@ -3021,7 +3021,7 @@
         <v>1938</v>
       </c>
       <c r="E116" s="4">
-        <v>5716</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3029,16 +3029,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>150555</v>
+        <v>150697</v>
       </c>
       <c r="C117" s="4">
-        <v>5509</v>
+        <v>5510</v>
       </c>
       <c r="D117" s="4">
-        <v>57054</v>
+        <v>57112</v>
       </c>
       <c r="E117" s="4">
-        <v>213118</v>
+        <v>213319</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3046,16 +3046,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>15123</v>
+        <v>15130</v>
       </c>
       <c r="C118" s="4">
         <v>1909</v>
       </c>
       <c r="D118" s="4">
-        <v>12017</v>
+        <v>12021</v>
       </c>
       <c r="E118" s="4">
-        <v>29049</v>
+        <v>29060</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3080,7 +3080,7 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>5790</v>
+        <v>5792</v>
       </c>
       <c r="C120" s="4">
         <v>309</v>
@@ -3089,7 +3089,7 @@
         <v>2301</v>
       </c>
       <c r="E120" s="4">
-        <v>8400</v>
+        <v>8402</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3097,16 +3097,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>12478</v>
+        <v>12488</v>
       </c>
       <c r="C121" s="4">
         <v>667</v>
       </c>
       <c r="D121" s="4">
-        <v>6665</v>
+        <v>6670</v>
       </c>
       <c r="E121" s="4">
-        <v>19810</v>
+        <v>19825</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3114,16 +3114,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>31969</v>
+        <v>31999</v>
       </c>
       <c r="C122" s="4">
         <v>3254</v>
       </c>
       <c r="D122" s="4">
-        <v>20521</v>
+        <v>20540</v>
       </c>
       <c r="E122" s="4">
-        <v>55744</v>
+        <v>55793</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3148,16 +3148,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>265283</v>
+        <v>265667</v>
       </c>
       <c r="C124" s="4">
         <v>17492</v>
       </c>
       <c r="D124" s="4">
-        <v>123620</v>
+        <v>123712</v>
       </c>
       <c r="E124" s="4">
-        <v>406395</v>
+        <v>406871</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3165,16 +3165,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>15450</v>
+        <v>15452</v>
       </c>
       <c r="C125" s="4">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D125" s="4">
-        <v>18375</v>
+        <v>18379</v>
       </c>
       <c r="E125" s="4">
-        <v>34610</v>
+        <v>34618</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3182,16 +3182,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>96540</v>
+        <v>96943</v>
       </c>
       <c r="C126" s="4">
-        <v>11604</v>
+        <v>11610</v>
       </c>
       <c r="D126" s="4">
-        <v>41873</v>
+        <v>41960</v>
       </c>
       <c r="E126" s="4">
-        <v>150017</v>
+        <v>150513</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3199,16 +3199,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>225321</v>
+        <v>225556</v>
       </c>
       <c r="C127" s="4">
-        <v>9840</v>
+        <v>9843</v>
       </c>
       <c r="D127" s="4">
-        <v>61175</v>
+        <v>61221</v>
       </c>
       <c r="E127" s="4">
-        <v>296336</v>
+        <v>296620</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3216,16 +3216,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>13029</v>
+        <v>13031</v>
       </c>
       <c r="C128" s="4">
         <v>252</v>
       </c>
       <c r="D128" s="4">
-        <v>11777</v>
+        <v>11884</v>
       </c>
       <c r="E128" s="4">
-        <v>25058</v>
+        <v>25167</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3233,16 +3233,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>24141</v>
+        <v>24158</v>
       </c>
       <c r="C129" s="4">
         <v>622</v>
       </c>
       <c r="D129" s="4">
-        <v>16741</v>
+        <v>16798</v>
       </c>
       <c r="E129" s="4">
-        <v>41504</v>
+        <v>41578</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3250,16 +3250,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>202658</v>
+        <v>202807</v>
       </c>
       <c r="C130" s="4">
-        <v>7839</v>
+        <v>7840</v>
       </c>
       <c r="D130" s="4">
-        <v>64996</v>
+        <v>65052</v>
       </c>
       <c r="E130" s="4">
-        <v>275493</v>
+        <v>275699</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3267,16 +3267,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>50269</v>
+        <v>50322</v>
       </c>
       <c r="C131" s="4">
         <v>3446</v>
       </c>
       <c r="D131" s="4">
-        <v>26747</v>
+        <v>26778</v>
       </c>
       <c r="E131" s="4">
-        <v>80462</v>
+        <v>80546</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3318,16 +3318,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>50975</v>
+        <v>51024</v>
       </c>
       <c r="C134" s="4">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="D134" s="4">
-        <v>59266</v>
+        <v>59345</v>
       </c>
       <c r="E134" s="4">
-        <v>112817</v>
+        <v>112946</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3335,16 +3335,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="C135" s="4">
         <v>89</v>
       </c>
       <c r="D135" s="4">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="E135" s="4">
-        <v>4493</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3352,7 +3352,7 @@
         <v>139</v>
       </c>
       <c r="B136" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C136" s="4">
         <v>9</v>
@@ -3361,7 +3361,7 @@
         <v>52</v>
       </c>
       <c r="E136" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137" ht="14" customHeight="1">
@@ -3386,16 +3386,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>45925</v>
+        <v>45964</v>
       </c>
       <c r="C138" s="4">
-        <v>5615</v>
+        <v>5619</v>
       </c>
       <c r="D138" s="4">
-        <v>21523</v>
+        <v>21544</v>
       </c>
       <c r="E138" s="4">
-        <v>73063</v>
+        <v>73127</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3409,10 +3409,10 @@
         <v>71</v>
       </c>
       <c r="D139" s="4">
-        <v>7935</v>
+        <v>7947</v>
       </c>
       <c r="E139" s="4">
-        <v>9360</v>
+        <v>9372</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3420,16 +3420,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>14577</v>
+        <v>14585</v>
       </c>
       <c r="C140" s="4">
         <v>332</v>
       </c>
       <c r="D140" s="4">
-        <v>7978</v>
+        <v>7982</v>
       </c>
       <c r="E140" s="4">
-        <v>22887</v>
+        <v>22899</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3437,16 +3437,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>34320</v>
+        <v>34342</v>
       </c>
       <c r="C141" s="4">
         <v>3159</v>
       </c>
       <c r="D141" s="4">
-        <v>26006</v>
+        <v>26065</v>
       </c>
       <c r="E141" s="4">
-        <v>63485</v>
+        <v>63566</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3454,16 +3454,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>10451</v>
+        <v>10460</v>
       </c>
       <c r="C142" s="4">
         <v>199</v>
       </c>
       <c r="D142" s="4">
-        <v>12982</v>
+        <v>12999</v>
       </c>
       <c r="E142" s="4">
-        <v>23632</v>
+        <v>23658</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3471,16 +3471,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>33696</v>
+        <v>33749</v>
       </c>
       <c r="C143" s="4">
         <v>849</v>
       </c>
       <c r="D143" s="4">
-        <v>9417</v>
+        <v>9424</v>
       </c>
       <c r="E143" s="4">
-        <v>43962</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3488,16 +3488,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>21074</v>
+        <v>21093</v>
       </c>
       <c r="C144" s="4">
         <v>1517</v>
       </c>
       <c r="D144" s="4">
-        <v>19411</v>
+        <v>19432</v>
       </c>
       <c r="E144" s="4">
-        <v>42002</v>
+        <v>42042</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3505,16 +3505,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>14873</v>
+        <v>14890</v>
       </c>
       <c r="C145" s="4">
         <v>553</v>
       </c>
       <c r="D145" s="4">
-        <v>8430</v>
+        <v>8438</v>
       </c>
       <c r="E145" s="4">
-        <v>23856</v>
+        <v>23881</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3522,16 +3522,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>19212</v>
+        <v>19244</v>
       </c>
       <c r="C146" s="4">
         <v>967</v>
       </c>
       <c r="D146" s="4">
-        <v>8944</v>
+        <v>8960</v>
       </c>
       <c r="E146" s="4">
-        <v>29123</v>
+        <v>29171</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3539,16 +3539,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>104708</v>
+        <v>105298</v>
       </c>
       <c r="C147" s="4">
         <v>4929</v>
       </c>
       <c r="D147" s="4">
-        <v>32989</v>
+        <v>33048</v>
       </c>
       <c r="E147" s="4">
-        <v>142626</v>
+        <v>143275</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3556,16 +3556,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>42939</v>
+        <v>42958</v>
       </c>
       <c r="C148" s="4">
         <v>827</v>
       </c>
       <c r="D148" s="4">
-        <v>45150</v>
+        <v>45275</v>
       </c>
       <c r="E148" s="4">
-        <v>88916</v>
+        <v>89060</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3579,10 +3579,10 @@
         <v>330</v>
       </c>
       <c r="D149" s="4">
-        <v>1372</v>
+        <v>1379</v>
       </c>
       <c r="E149" s="4">
-        <v>2443</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3590,16 +3590,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>10425</v>
+        <v>10436</v>
       </c>
       <c r="C150" s="4">
         <v>1392</v>
       </c>
       <c r="D150" s="4">
-        <v>9294</v>
+        <v>9301</v>
       </c>
       <c r="E150" s="4">
-        <v>21111</v>
+        <v>21129</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3607,16 +3607,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>20858</v>
+        <v>20874</v>
       </c>
       <c r="C151" s="4">
         <v>802</v>
       </c>
       <c r="D151" s="4">
-        <v>6564</v>
+        <v>6581</v>
       </c>
       <c r="E151" s="4">
-        <v>28224</v>
+        <v>28257</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3624,16 +3624,16 @@
         <v>155</v>
       </c>
       <c r="B152" s="4">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C152" s="4">
         <v>5</v>
       </c>
       <c r="D152" s="4">
-        <v>14363</v>
+        <v>14574</v>
       </c>
       <c r="E152" s="4">
-        <v>14833</v>
+        <v>15050</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3641,16 +3641,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>390752</v>
+        <v>390928</v>
       </c>
       <c r="C153" s="4">
-        <v>13771</v>
+        <v>13776</v>
       </c>
       <c r="D153" s="4">
-        <v>216802</v>
+        <v>217003</v>
       </c>
       <c r="E153" s="4">
-        <v>621325</v>
+        <v>621707</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3658,16 +3658,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>4977</v>
+        <v>4993</v>
       </c>
       <c r="C154" s="4">
         <v>200</v>
       </c>
       <c r="D154" s="4">
-        <v>4488</v>
+        <v>4494</v>
       </c>
       <c r="E154" s="4">
-        <v>9665</v>
+        <v>9687</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3675,16 +3675,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>21190</v>
+        <v>21207</v>
       </c>
       <c r="C155" s="4">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D155" s="4">
-        <v>7625</v>
+        <v>7627</v>
       </c>
       <c r="E155" s="4">
-        <v>29247</v>
+        <v>29267</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3692,16 +3692,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>4638</v>
+        <v>4640</v>
       </c>
       <c r="C156" s="4">
         <v>889</v>
       </c>
       <c r="D156" s="4">
-        <v>4460</v>
+        <v>4466</v>
       </c>
       <c r="E156" s="4">
-        <v>9987</v>
+        <v>9995</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3709,7 +3709,7 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C157" s="4">
         <v>295</v>
@@ -3718,7 +3718,7 @@
         <v>1641</v>
       </c>
       <c r="E157" s="4">
-        <v>3955</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3732,10 +3732,10 @@
         <v>134</v>
       </c>
       <c r="D158" s="4">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="E158" s="4">
-        <v>5483</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3743,16 +3743,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>54711</v>
+        <v>54767</v>
       </c>
       <c r="C159" s="4">
         <v>2086</v>
       </c>
       <c r="D159" s="4">
-        <v>9028</v>
+        <v>9032</v>
       </c>
       <c r="E159" s="4">
-        <v>65825</v>
+        <v>65885</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3760,16 +3760,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>110689</v>
+        <v>110720</v>
       </c>
       <c r="C160" s="4">
         <v>549</v>
       </c>
       <c r="D160" s="4">
-        <v>33241</v>
+        <v>33264</v>
       </c>
       <c r="E160" s="4">
-        <v>144479</v>
+        <v>144533</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3777,16 +3777,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>4175</v>
+        <v>4180</v>
       </c>
       <c r="C161" s="4">
         <v>102</v>
       </c>
       <c r="D161" s="4">
-        <v>6430</v>
+        <v>6460</v>
       </c>
       <c r="E161" s="4">
-        <v>10707</v>
+        <v>10742</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3794,16 +3794,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>465001</v>
+        <v>465263</v>
       </c>
       <c r="C162" s="4">
-        <v>14569</v>
+        <v>14572</v>
       </c>
       <c r="D162" s="4">
-        <v>182760</v>
+        <v>183146</v>
       </c>
       <c r="E162" s="4">
-        <v>662330</v>
+        <v>662981</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3828,16 +3828,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>58231</v>
+        <v>58286</v>
       </c>
       <c r="C164" s="4">
         <v>1914</v>
       </c>
       <c r="D164" s="4">
-        <v>18719</v>
+        <v>18803</v>
       </c>
       <c r="E164" s="4">
-        <v>78864</v>
+        <v>79003</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3845,16 +3845,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="C165" s="4">
         <v>32</v>
       </c>
       <c r="D165" s="4">
-        <v>3008</v>
+        <v>3013</v>
       </c>
       <c r="E165" s="4">
-        <v>5639</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3862,16 +3862,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>92542</v>
+        <v>92611</v>
       </c>
       <c r="C166" s="4">
-        <v>12935</v>
+        <v>12940</v>
       </c>
       <c r="D166" s="4">
-        <v>101961</v>
+        <v>102074</v>
       </c>
       <c r="E166" s="4">
-        <v>207438</v>
+        <v>207625</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3879,16 +3879,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>28688</v>
+        <v>28723</v>
       </c>
       <c r="C167" s="4">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="D167" s="4">
-        <v>16348</v>
+        <v>16364</v>
       </c>
       <c r="E167" s="4">
-        <v>46497</v>
+        <v>46550</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3896,16 +3896,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>10277</v>
+        <v>10283</v>
       </c>
       <c r="C168" s="4">
         <v>147</v>
       </c>
       <c r="D168" s="4">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="E168" s="4">
-        <v>13535</v>
+        <v>13542</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3913,16 +3913,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>9187</v>
+        <v>9189</v>
       </c>
       <c r="C169" s="4">
         <v>91</v>
       </c>
       <c r="D169" s="4">
-        <v>8646</v>
+        <v>8647</v>
       </c>
       <c r="E169" s="4">
-        <v>17924</v>
+        <v>17927</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3930,16 +3930,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>21105</v>
+        <v>21107</v>
       </c>
       <c r="C170" s="4">
         <v>1396</v>
       </c>
       <c r="D170" s="4">
-        <v>12480</v>
+        <v>12492</v>
       </c>
       <c r="E170" s="4">
-        <v>34981</v>
+        <v>34995</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3947,16 +3947,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>819953</v>
+        <v>822744</v>
       </c>
       <c r="C171" s="4">
-        <v>51874</v>
+        <v>51906</v>
       </c>
       <c r="D171" s="4">
-        <v>191485</v>
+        <v>192003</v>
       </c>
       <c r="E171" s="4">
-        <v>1063312</v>
+        <v>1066653</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3964,16 +3964,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>12744</v>
+        <v>12769</v>
       </c>
       <c r="C172" s="4">
         <v>1268</v>
       </c>
       <c r="D172" s="4">
-        <v>8937</v>
+        <v>8941</v>
       </c>
       <c r="E172" s="4">
-        <v>22949</v>
+        <v>22978</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3981,16 +3981,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>10852</v>
+        <v>10868</v>
       </c>
       <c r="C173" s="4">
         <v>844</v>
       </c>
       <c r="D173" s="4">
-        <v>9613</v>
+        <v>9630</v>
       </c>
       <c r="E173" s="4">
-        <v>21309</v>
+        <v>21342</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4015,16 +4015,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>73927</v>
+        <v>73977</v>
       </c>
       <c r="C175" s="4">
-        <v>4842</v>
+        <v>4843</v>
       </c>
       <c r="D175" s="4">
-        <v>26307</v>
+        <v>26324</v>
       </c>
       <c r="E175" s="4">
-        <v>105076</v>
+        <v>105144</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4032,16 +4032,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>45615</v>
+        <v>45640</v>
       </c>
       <c r="C176" s="4">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="D176" s="4">
-        <v>42177</v>
+        <v>42237</v>
       </c>
       <c r="E176" s="4">
-        <v>90003</v>
+        <v>90090</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4049,16 +4049,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>8115</v>
+        <v>8127</v>
       </c>
       <c r="C177" s="4">
         <v>992</v>
       </c>
       <c r="D177" s="4">
-        <v>6709</v>
+        <v>6716</v>
       </c>
       <c r="E177" s="4">
-        <v>15816</v>
+        <v>15835</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4066,16 +4066,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>11020</v>
+        <v>11024</v>
       </c>
       <c r="C178" s="4">
         <v>249</v>
       </c>
       <c r="D178" s="4">
-        <v>10056</v>
+        <v>10133</v>
       </c>
       <c r="E178" s="4">
-        <v>21325</v>
+        <v>21406</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4083,16 +4083,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>421810</v>
+        <v>422228</v>
       </c>
       <c r="C179" s="4">
-        <v>55140</v>
+        <v>55161</v>
       </c>
       <c r="D179" s="4">
-        <v>218863</v>
+        <v>219112</v>
       </c>
       <c r="E179" s="4">
-        <v>695813</v>
+        <v>696501</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4100,16 +4100,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>2399</v>
+        <v>2401</v>
       </c>
       <c r="C180" s="4">
         <v>470</v>
       </c>
       <c r="D180" s="4">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="E180" s="4">
-        <v>4680</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4117,7 +4117,7 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="C181" s="4">
         <v>431</v>
@@ -4126,7 +4126,7 @@
         <v>1435</v>
       </c>
       <c r="E181" s="4">
-        <v>3207</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4134,16 +4134,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>62787</v>
+        <v>62853</v>
       </c>
       <c r="C182" s="4">
         <v>7572</v>
       </c>
       <c r="D182" s="4">
-        <v>39107</v>
+        <v>39160</v>
       </c>
       <c r="E182" s="4">
-        <v>109466</v>
+        <v>109585</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4151,16 +4151,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>29269</v>
+        <v>29294</v>
       </c>
       <c r="C183" s="4">
         <v>1172</v>
       </c>
       <c r="D183" s="4">
-        <v>14772</v>
+        <v>14778</v>
       </c>
       <c r="E183" s="4">
-        <v>45213</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4168,16 +4168,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>17067</v>
+        <v>17093</v>
       </c>
       <c r="C184" s="4">
         <v>1382</v>
       </c>
       <c r="D184" s="4">
-        <v>12539</v>
+        <v>12576</v>
       </c>
       <c r="E184" s="4">
-        <v>30988</v>
+        <v>31051</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4185,16 +4185,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>157661</v>
+        <v>157809</v>
       </c>
       <c r="C185" s="4">
-        <v>8478</v>
+        <v>8479</v>
       </c>
       <c r="D185" s="4">
-        <v>49066</v>
+        <v>49129</v>
       </c>
       <c r="E185" s="4">
-        <v>215205</v>
+        <v>215417</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4202,16 +4202,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>3849</v>
+        <v>3856</v>
       </c>
       <c r="C186" s="4">
         <v>390</v>
       </c>
       <c r="D186" s="4">
-        <v>4694</v>
+        <v>4698</v>
       </c>
       <c r="E186" s="4">
-        <v>8933</v>
+        <v>8944</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4219,16 +4219,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>15739</v>
+        <v>15742</v>
       </c>
       <c r="C187" s="4">
         <v>181</v>
       </c>
       <c r="D187" s="4">
-        <v>6305</v>
+        <v>6311</v>
       </c>
       <c r="E187" s="4">
-        <v>22225</v>
+        <v>22234</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4236,16 +4236,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>64254</v>
+        <v>64345</v>
       </c>
       <c r="C188" s="4">
         <v>3144</v>
       </c>
       <c r="D188" s="4">
-        <v>26948</v>
+        <v>27008</v>
       </c>
       <c r="E188" s="4">
-        <v>94346</v>
+        <v>94497</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4253,16 +4253,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>128954</v>
+        <v>129052</v>
       </c>
       <c r="C189" s="4">
         <v>10477</v>
       </c>
       <c r="D189" s="4">
-        <v>58480</v>
+        <v>58521</v>
       </c>
       <c r="E189" s="4">
-        <v>197911</v>
+        <v>198050</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4270,7 +4270,7 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>8227</v>
+        <v>8230</v>
       </c>
       <c r="C190" s="4">
         <v>66</v>
@@ -4279,7 +4279,7 @@
         <v>2457</v>
       </c>
       <c r="E190" s="4">
-        <v>10750</v>
+        <v>10753</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4287,16 +4287,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>6737</v>
+        <v>6745</v>
       </c>
       <c r="C191" s="4">
         <v>510</v>
       </c>
       <c r="D191" s="4">
-        <v>4199</v>
+        <v>4204</v>
       </c>
       <c r="E191" s="4">
-        <v>11446</v>
+        <v>11459</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4304,16 +4304,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>98195</v>
+        <v>98338</v>
       </c>
       <c r="C192" s="4">
-        <v>21404</v>
+        <v>21405</v>
       </c>
       <c r="D192" s="4">
-        <v>51096</v>
+        <v>51128</v>
       </c>
       <c r="E192" s="4">
-        <v>170695</v>
+        <v>170871</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4327,10 +4327,10 @@
         <v>49</v>
       </c>
       <c r="D193" s="4">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="E193" s="4">
-        <v>2933</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4338,16 +4338,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="C194" s="4">
         <v>152</v>
       </c>
       <c r="D194" s="4">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="E194" s="4">
-        <v>5234</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4355,16 +4355,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>9233</v>
+        <v>9244</v>
       </c>
       <c r="C195" s="4">
         <v>794</v>
       </c>
       <c r="D195" s="4">
-        <v>11081</v>
+        <v>11170</v>
       </c>
       <c r="E195" s="4">
-        <v>21108</v>
+        <v>21208</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4372,16 +4372,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>14668</v>
+        <v>14676</v>
       </c>
       <c r="C196" s="4">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D196" s="4">
-        <v>102839</v>
+        <v>102992</v>
       </c>
       <c r="E196" s="4">
-        <v>118083</v>
+        <v>118245</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4389,16 +4389,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>6650</v>
+        <v>6656</v>
       </c>
       <c r="C197" s="4">
         <v>567</v>
       </c>
       <c r="D197" s="4">
-        <v>10429</v>
+        <v>10438</v>
       </c>
       <c r="E197" s="4">
-        <v>17646</v>
+        <v>17661</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4423,16 +4423,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>21765</v>
+        <v>21781</v>
       </c>
       <c r="C199" s="4">
         <v>614</v>
       </c>
       <c r="D199" s="4">
-        <v>15716</v>
+        <v>15767</v>
       </c>
       <c r="E199" s="4">
-        <v>38095</v>
+        <v>38162</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4440,16 +4440,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>128189</v>
+        <v>128260</v>
       </c>
       <c r="C200" s="4">
         <v>8872</v>
       </c>
       <c r="D200" s="4">
-        <v>28227</v>
+        <v>28259</v>
       </c>
       <c r="E200" s="4">
-        <v>165288</v>
+        <v>165391</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4463,10 +4463,10 @@
         <v>260</v>
       </c>
       <c r="D201" s="4">
-        <v>10161</v>
+        <v>10167</v>
       </c>
       <c r="E201" s="4">
-        <v>19112</v>
+        <v>19118</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4474,16 +4474,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>39288</v>
+        <v>39309</v>
       </c>
       <c r="C202" s="4">
         <v>2617</v>
       </c>
       <c r="D202" s="4">
-        <v>13047</v>
+        <v>13068</v>
       </c>
       <c r="E202" s="4">
-        <v>54952</v>
+        <v>54994</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4491,16 +4491,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>12373</v>
+        <v>12394</v>
       </c>
       <c r="C203" s="4">
         <v>802</v>
       </c>
       <c r="D203" s="4">
-        <v>5568</v>
+        <v>5573</v>
       </c>
       <c r="E203" s="4">
-        <v>18743</v>
+        <v>18769</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4508,16 +4508,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>11952</v>
+        <v>11956</v>
       </c>
       <c r="C204" s="4">
         <v>320</v>
       </c>
       <c r="D204" s="4">
-        <v>11339</v>
+        <v>11372</v>
       </c>
       <c r="E204" s="4">
-        <v>23611</v>
+        <v>23648</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4525,16 +4525,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>36406</v>
+        <v>36586</v>
       </c>
       <c r="C205" s="4">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="D205" s="4">
-        <v>12387</v>
+        <v>12408</v>
       </c>
       <c r="E205" s="4">
-        <v>51368</v>
+        <v>51570</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4542,16 +4542,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>65423</v>
+        <v>65486</v>
       </c>
       <c r="C206" s="4">
-        <v>10365</v>
+        <v>10368</v>
       </c>
       <c r="D206" s="4">
-        <v>54237</v>
+        <v>54289</v>
       </c>
       <c r="E206" s="4">
-        <v>130025</v>
+        <v>130143</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4559,16 +4559,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>5952</v>
+        <v>5958</v>
       </c>
       <c r="C207" s="4">
         <v>148</v>
       </c>
       <c r="D207" s="4">
-        <v>4940</v>
+        <v>4943</v>
       </c>
       <c r="E207" s="4">
-        <v>11040</v>
+        <v>11049</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4576,16 +4576,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C208" s="4">
         <v>25</v>
       </c>
       <c r="D208" s="4">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="E208" s="4">
-        <v>2494</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4593,16 +4593,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>32610</v>
+        <v>32648</v>
       </c>
       <c r="C209" s="4">
         <v>372</v>
       </c>
       <c r="D209" s="4">
-        <v>6359</v>
+        <v>6366</v>
       </c>
       <c r="E209" s="4">
-        <v>39341</v>
+        <v>39386</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4610,16 +4610,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="C210" s="4">
         <v>104</v>
       </c>
       <c r="D210" s="4">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="E210" s="4">
-        <v>2870</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4627,16 +4627,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>25160</v>
+        <v>25203</v>
       </c>
       <c r="C211" s="4">
         <v>1537</v>
       </c>
       <c r="D211" s="4">
-        <v>12787</v>
+        <v>12803</v>
       </c>
       <c r="E211" s="4">
-        <v>39484</v>
+        <v>39543</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4644,7 +4644,7 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C212" s="4">
         <v>188</v>
@@ -4653,7 +4653,7 @@
         <v>302</v>
       </c>
       <c r="E212" s="4">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4661,16 +4661,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>333932</v>
+        <v>334174</v>
       </c>
       <c r="C213" s="4">
         <v>17449</v>
       </c>
       <c r="D213" s="4">
-        <v>125351</v>
+        <v>125604</v>
       </c>
       <c r="E213" s="4">
-        <v>476732</v>
+        <v>477227</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4678,16 +4678,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>10442</v>
+        <v>10451</v>
       </c>
       <c r="C214" s="4">
         <v>467</v>
       </c>
       <c r="D214" s="4">
-        <v>9406</v>
+        <v>9408</v>
       </c>
       <c r="E214" s="4">
-        <v>20315</v>
+        <v>20326</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4695,16 +4695,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>97145</v>
+        <v>97207</v>
       </c>
       <c r="C215" s="4">
         <v>991</v>
       </c>
       <c r="D215" s="4">
-        <v>42546</v>
+        <v>42569</v>
       </c>
       <c r="E215" s="4">
-        <v>140682</v>
+        <v>140767</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4712,7 +4712,7 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>6722</v>
+        <v>6726</v>
       </c>
       <c r="C216" s="4">
         <v>183</v>
@@ -4721,7 +4721,7 @@
         <v>8305</v>
       </c>
       <c r="E216" s="4">
-        <v>15210</v>
+        <v>15214</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4729,16 +4729,16 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C217" s="4">
         <v>27</v>
       </c>
       <c r="D217" s="4">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="E217" s="4">
-        <v>1988</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4763,16 +4763,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C219" s="4">
         <v>50</v>
       </c>
       <c r="D219" s="4">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="E219" s="4">
-        <v>3436</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4780,16 +4780,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>8997</v>
+        <v>9001</v>
       </c>
       <c r="C220" s="4">
         <v>474</v>
       </c>
       <c r="D220" s="4">
-        <v>2728</v>
+        <v>2730</v>
       </c>
       <c r="E220" s="4">
-        <v>12199</v>
+        <v>12205</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4797,16 +4797,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>3240350</v>
+        <v>3243299</v>
       </c>
       <c r="C221" s="4">
-        <v>124949</v>
+        <v>124974</v>
       </c>
       <c r="D221" s="4">
-        <v>752146</v>
+        <v>754983</v>
       </c>
       <c r="E221" s="4">
-        <v>4117445</v>
+        <v>4123256</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4814,16 +4814,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>128062</v>
+        <v>128346</v>
       </c>
       <c r="C222" s="4">
         <v>5064</v>
       </c>
       <c r="D222" s="4">
-        <v>179186</v>
+        <v>179414</v>
       </c>
       <c r="E222" s="4">
-        <v>312312</v>
+        <v>312824</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4848,16 +4848,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>6343</v>
+        <v>6350</v>
       </c>
       <c r="C224" s="4">
         <v>148</v>
       </c>
       <c r="D224" s="4">
-        <v>5036</v>
+        <v>5045</v>
       </c>
       <c r="E224" s="4">
-        <v>11527</v>
+        <v>11543</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4865,16 +4865,16 @@
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C225" s="4">
         <v>58</v>
       </c>
       <c r="D225" s="4">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E225" s="4">
-        <v>1673</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4882,16 +4882,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>38360</v>
+        <v>38393</v>
       </c>
       <c r="C226" s="4">
         <v>1547</v>
       </c>
       <c r="D226" s="4">
-        <v>12616</v>
+        <v>12629</v>
       </c>
       <c r="E226" s="4">
-        <v>52523</v>
+        <v>52569</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4899,16 +4899,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>109705</v>
+        <v>109749</v>
       </c>
       <c r="C227" s="4">
         <v>3465</v>
       </c>
       <c r="D227" s="4">
-        <v>167973</v>
+        <v>168295</v>
       </c>
       <c r="E227" s="4">
-        <v>281143</v>
+        <v>281509</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4916,16 +4916,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>2194065</v>
+        <v>2196849</v>
       </c>
       <c r="C228" s="4">
-        <v>103788</v>
+        <v>103837</v>
       </c>
       <c r="D228" s="4">
-        <v>570311</v>
+        <v>572058</v>
       </c>
       <c r="E228" s="4">
-        <v>2868164</v>
+        <v>2872744</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4933,16 +4933,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>19999</v>
+        <v>20024</v>
       </c>
       <c r="C229" s="4">
         <v>653</v>
       </c>
       <c r="D229" s="4">
-        <v>9934</v>
+        <v>9945</v>
       </c>
       <c r="E229" s="4">
-        <v>30586</v>
+        <v>30622</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4950,16 +4950,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>18190</v>
+        <v>18207</v>
       </c>
       <c r="C230" s="4">
         <v>1155</v>
       </c>
       <c r="D230" s="4">
-        <v>13118</v>
+        <v>13166</v>
       </c>
       <c r="E230" s="4">
-        <v>32463</v>
+        <v>32528</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4967,16 +4967,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>18085</v>
+        <v>18092</v>
       </c>
       <c r="C231" s="4">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="D231" s="4">
-        <v>11839</v>
+        <v>11855</v>
       </c>
       <c r="E231" s="4">
-        <v>32597</v>
+        <v>32621</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4990,10 +4990,10 @@
         <v>107</v>
       </c>
       <c r="D232" s="4">
-        <v>4907</v>
+        <v>4922</v>
       </c>
       <c r="E232" s="4">
-        <v>6395</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -5001,16 +5001,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>52644</v>
+        <v>52692</v>
       </c>
       <c r="C233" s="4">
         <v>659</v>
       </c>
       <c r="D233" s="4">
-        <v>7857</v>
+        <v>7889</v>
       </c>
       <c r="E233" s="4">
-        <v>61160</v>
+        <v>61240</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5018,16 +5018,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>76418</v>
+        <v>76452</v>
       </c>
       <c r="C234" s="4">
         <v>1375</v>
       </c>
       <c r="D234" s="4">
-        <v>39004</v>
+        <v>39014</v>
       </c>
       <c r="E234" s="4">
-        <v>116797</v>
+        <v>116841</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5035,16 +5035,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>39274</v>
+        <v>39303</v>
       </c>
       <c r="C235" s="4">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c r="D235" s="4">
-        <v>26152</v>
+        <v>26189</v>
       </c>
       <c r="E235" s="4">
-        <v>68005</v>
+        <v>68073</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5052,16 +5052,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>85216</v>
+        <v>85267</v>
       </c>
       <c r="C236" s="4">
-        <v>6898</v>
+        <v>6902</v>
       </c>
       <c r="D236" s="4">
-        <v>39244</v>
+        <v>39263</v>
       </c>
       <c r="E236" s="4">
-        <v>131358</v>
+        <v>131432</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5069,16 +5069,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>188737</v>
+        <v>188922</v>
       </c>
       <c r="C237" s="4">
         <v>3485</v>
       </c>
       <c r="D237" s="4">
-        <v>54430</v>
+        <v>54436</v>
       </c>
       <c r="E237" s="4">
-        <v>246652</v>
+        <v>246843</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5086,16 +5086,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>72913</v>
+        <v>73146</v>
       </c>
       <c r="C238" s="4">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="D238" s="4">
-        <v>14379</v>
+        <v>14396</v>
       </c>
       <c r="E238" s="4">
-        <v>89784</v>
+        <v>90035</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5103,7 +5103,7 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>6679</v>
+        <v>6682</v>
       </c>
       <c r="C239" s="4">
         <v>246</v>
@@ -5112,7 +5112,7 @@
         <v>3749</v>
       </c>
       <c r="E239" s="4">
-        <v>10674</v>
+        <v>10677</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5120,16 +5120,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>62371</v>
+        <v>62429</v>
       </c>
       <c r="C240" s="4">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="D240" s="4">
-        <v>34801</v>
+        <v>34807</v>
       </c>
       <c r="E240" s="4">
-        <v>99373</v>
+        <v>99438</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5137,16 +5137,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>653925</v>
+        <v>654277</v>
       </c>
       <c r="C241" s="4">
         <v>7314</v>
       </c>
       <c r="D241" s="4">
-        <v>183303</v>
+        <v>183356</v>
       </c>
       <c r="E241" s="4">
-        <v>844542</v>
+        <v>844947</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5154,16 +5154,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>56210</v>
+        <v>56267</v>
       </c>
       <c r="C242" s="4">
-        <v>2789</v>
+        <v>2793</v>
       </c>
       <c r="D242" s="4">
-        <v>20957</v>
+        <v>20960</v>
       </c>
       <c r="E242" s="4">
-        <v>79956</v>
+        <v>80020</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5171,16 +5171,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="C243" s="4">
         <v>537</v>
       </c>
       <c r="D243" s="4">
-        <v>5775</v>
+        <v>5785</v>
       </c>
       <c r="E243" s="4">
-        <v>9076</v>
+        <v>9087</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5188,16 +5188,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>175854</v>
+        <v>175945</v>
       </c>
       <c r="C244" s="4">
-        <v>13287</v>
+        <v>13293</v>
       </c>
       <c r="D244" s="4">
-        <v>97635</v>
+        <v>97803</v>
       </c>
       <c r="E244" s="4">
-        <v>286776</v>
+        <v>287041</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5205,16 +5205,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>20531</v>
+        <v>20549</v>
       </c>
       <c r="C245" s="4">
         <v>872</v>
       </c>
       <c r="D245" s="4">
-        <v>44078</v>
+        <v>44239</v>
       </c>
       <c r="E245" s="4">
-        <v>65481</v>
+        <v>65660</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5222,16 +5222,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>59314</v>
+        <v>59336</v>
       </c>
       <c r="C246" s="4">
         <v>263</v>
       </c>
       <c r="D246" s="4">
-        <v>11798</v>
+        <v>11815</v>
       </c>
       <c r="E246" s="4">
-        <v>71375</v>
+        <v>71414</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5239,16 +5239,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>967892</v>
+        <v>968698</v>
       </c>
       <c r="C247" s="4">
-        <v>47655</v>
+        <v>47687</v>
       </c>
       <c r="D247" s="4">
-        <v>263134</v>
+        <v>263585</v>
       </c>
       <c r="E247" s="4">
-        <v>1278681</v>
+        <v>1279970</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5256,16 +5256,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>61053</v>
+        <v>61092</v>
       </c>
       <c r="C248" s="4">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="D248" s="4">
-        <v>32549</v>
+        <v>32591</v>
       </c>
       <c r="E248" s="4">
-        <v>95383</v>
+        <v>95466</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5273,7 +5273,7 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="C249" s="4">
         <v>76</v>
@@ -5282,7 +5282,7 @@
         <v>943</v>
       </c>
       <c r="E249" s="4">
-        <v>3379</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5290,16 +5290,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>86185</v>
+        <v>86255</v>
       </c>
       <c r="C250" s="4">
         <v>4367</v>
       </c>
       <c r="D250" s="4">
-        <v>21256</v>
+        <v>21290</v>
       </c>
       <c r="E250" s="4">
-        <v>111808</v>
+        <v>111912</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5307,16 +5307,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>33954</v>
+        <v>33975</v>
       </c>
       <c r="C251" s="4">
         <v>2601</v>
       </c>
       <c r="D251" s="4">
-        <v>23969</v>
+        <v>24050</v>
       </c>
       <c r="E251" s="4">
-        <v>60524</v>
+        <v>60626</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5324,16 +5324,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="C252" s="4">
         <v>175</v>
       </c>
       <c r="D252" s="4">
-        <v>2791</v>
+        <v>2793</v>
       </c>
       <c r="E252" s="4">
-        <v>6203</v>
+        <v>6206</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5341,16 +5341,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>13051</v>
+        <v>13070</v>
       </c>
       <c r="C253" s="4">
         <v>736</v>
       </c>
       <c r="D253" s="4">
-        <v>8488</v>
+        <v>8520</v>
       </c>
       <c r="E253" s="4">
-        <v>22275</v>
+        <v>22326</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5358,16 +5358,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>21327</v>
+        <v>21341</v>
       </c>
       <c r="C254" s="4">
         <v>180</v>
       </c>
       <c r="D254" s="4">
-        <v>20778</v>
+        <v>20781</v>
       </c>
       <c r="E254" s="4">
-        <v>42285</v>
+        <v>42302</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5375,16 +5375,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>17124</v>
+        <v>17132</v>
       </c>
       <c r="C255" s="4">
         <v>273</v>
       </c>
       <c r="D255" s="4">
-        <v>4121</v>
+        <v>4131</v>
       </c>
       <c r="E255" s="4">
-        <v>21518</v>
+        <v>21536</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5392,16 +5392,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>558649</v>
+        <v>569594</v>
       </c>
       <c r="C256" s="4">
-        <v>14651</v>
+        <v>14652</v>
       </c>
       <c r="D256" s="4">
-        <v>20357</v>
+        <v>20386</v>
       </c>
       <c r="E256" s="4">
-        <v>593657</v>
+        <v>604632</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5409,16 +5409,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>47094118</v>
+        <v>47214528</v>
       </c>
       <c r="C257" s="4">
-        <v>1897311</v>
+        <v>1897994</v>
       </c>
       <c r="D257" s="4">
-        <v>12933253</v>
+        <v>12956102</v>
       </c>
       <c r="E257" s="4">
-        <v>61924682</v>
+        <v>62068624</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
